--- a/TestData/ddtExcel.xlsx
+++ b/TestData/ddtExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shailendra.mishra\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shailendra.mishra\eclipse-workspace\seleniumBasic\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76E5AEB4-A747-4EE9-991B-BC93D2E4737A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B1FFDED-90EF-468D-8D8F-BAAE656F6E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F215F613-5BA3-4E04-B41E-9E804BA01BBA}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>anand</t>
   </si>
@@ -51,6 +45,18 @@
   </si>
   <si>
     <t>akash</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -422,25 +428,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BB3C58-DA2F-4EA2-A1A1-1A995274CBFF}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>123</v>
@@ -448,7 +454,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>342</v>
@@ -456,10 +462,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
